--- a/Luban/Datas/__tables__.xlsx
+++ b/Luban/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ProjectPoincar\ProjectPoincar\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\YuFramework\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A20AED-38F5-4A67-9C18-D479ECA3B545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FC9376-91A8-45D2-92CF-54C50949B728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -103,67 +103,70 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
+    <t>CfgPrefab</t>
+  </si>
+  <si>
+    <t>CfgSFX</t>
+  </si>
+  <si>
+    <t>CfgSprite</t>
+  </si>
+  <si>
+    <t>CfgUI</t>
+  </si>
+  <si>
+    <t>CfgBGM</t>
+  </si>
+  <si>
+    <t>RowCfgBgm</t>
+  </si>
+  <si>
+    <t>BGM@AudioSystem.xlsx</t>
+  </si>
+  <si>
+    <t>RowCfgSFX</t>
+  </si>
+  <si>
+    <t>SFX@AudioSystem.xlsx</t>
+  </si>
+  <si>
+    <t>RowCfgUI</t>
+  </si>
+  <si>
+    <t>UI@UISystem.xlsx</t>
+  </si>
+  <si>
+    <t>RowCfgSprite</t>
+  </si>
+  <si>
     <t>CfgCamera</t>
+  </si>
+  <si>
+    <t>RowCfgCamera</t>
+  </si>
+  <si>
+    <t>Camera@UISystem.xlsx</t>
+  </si>
+  <si>
+    <t>RowCfgPrefab</t>
+  </si>
+  <si>
+    <t>Prefab@UISystem.xlsx</t>
+  </si>
+  <si>
+    <t>Sprite@Sprite.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Camera.xlsx</t>
+    <t>Scene.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CfgPrefab</t>
-  </si>
-  <si>
-    <t>Prefab.xlsx</t>
-  </si>
-  <si>
-    <t>CfgSFX</t>
-  </si>
-  <si>
-    <t>SFX.xlsx</t>
-  </si>
-  <si>
-    <t>CfgSprite</t>
-  </si>
-  <si>
-    <t>Sprite.xlsx</t>
-  </si>
-  <si>
-    <t>CfgUI</t>
-  </si>
-  <si>
-    <t>UI.xlsx</t>
-  </si>
-  <si>
-    <t>RowCfgBgm</t>
+    <t>CfgScene</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RowCfgCamera</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowCfgPrefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowCfgSFX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowCfgSprite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowCfgUI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGM.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CfgBGM</t>
+    <t>RowCfgScene</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +193,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -225,27 +236,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,91 +643,113 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
+      <c r="C5" t="s">
+        <v>42</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
+      <c r="C6" t="s">
+        <v>38</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>36</v>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" tooltip="mailto:BGM@AudioSystem.xlsx" xr:uid="{158BF06A-9022-4334-BA58-237E85E95925}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{82455347-1594-4AF9-8710-E370090D34FE}"/>
+    <hyperlink ref="E7" r:id="rId3" tooltip="mailto:UI@UISystem.xlsx" xr:uid="{F79F9BC7-F49F-4B73-B7A8-42E55744EA28}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{2578A30D-67D8-41F5-8CD9-9B72B48FD66D}"/>
+    <hyperlink ref="E4" r:id="rId5" tooltip="mailto:Camera@UISystem.xlsx" xr:uid="{9CAA5DE0-9E37-4C6E-B59E-A1111966DDEA}"/>
+    <hyperlink ref="E5" r:id="rId6" tooltip="mailto:Prefab@UISystem.xlsx" xr:uid="{95CF0069-E658-4737-BC0C-B7A4D76BA5D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Luban/Datas/__tables__.xlsx
+++ b/Luban/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\YuFramework\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FC9376-91A8-45D2-92CF-54C50949B728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9119BF4-1CEB-450F-9EC1-D24EF47CA5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>RowCfgScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RowCfgHUD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CfgHUD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUD@UISystem.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,14 +205,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -236,14 +240,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -254,16 +255,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,22 +537,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -642,7 +642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -652,11 +652,11 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -666,11 +666,11 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -680,11 +680,11 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -694,62 +694,68 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" tooltip="mailto:BGM@AudioSystem.xlsx" xr:uid="{158BF06A-9022-4334-BA58-237E85E95925}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{82455347-1594-4AF9-8710-E370090D34FE}"/>
-    <hyperlink ref="E7" r:id="rId3" tooltip="mailto:UI@UISystem.xlsx" xr:uid="{F79F9BC7-F49F-4B73-B7A8-42E55744EA28}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{2578A30D-67D8-41F5-8CD9-9B72B48FD66D}"/>
-    <hyperlink ref="E4" r:id="rId5" tooltip="mailto:Camera@UISystem.xlsx" xr:uid="{9CAA5DE0-9E37-4C6E-B59E-A1111966DDEA}"/>
-    <hyperlink ref="E5" r:id="rId6" tooltip="mailto:Prefab@UISystem.xlsx" xr:uid="{95CF0069-E658-4737-BC0C-B7A4D76BA5D0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Luban/Datas/__tables__.xlsx
+++ b/Luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\YuFramework\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9119BF4-1CEB-450F-9EC1-D24EF47CA5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65879B00-1128-4970-92EB-0B6A95290868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>RowCfgPrefab</t>
   </si>
   <si>
-    <t>Prefab@UISystem.xlsx</t>
-  </si>
-  <si>
     <t>Sprite@Sprite.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,6 +176,10 @@
   </si>
   <si>
     <t>HUD@UISystem.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,9 +257,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,7 +538,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -652,7 +650,7 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -666,8 +664,8 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -680,8 +678,8 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>44</v>
+      <c r="E6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -694,22 +692,22 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -722,7 +720,7 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -736,22 +734,22 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Datas/__tables__.xlsx
+++ b/Luban/Datas/__tables__.xlsx
@@ -1,30 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\YuFramework\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\YuFramework\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65879B00-1128-4970-92EB-0B6A95290868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F9488F-773E-497B-A9DD-94D81997D7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
   <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>full_name</t>
   </si>
   <si>
@@ -55,9 +69,6 @@
     <t>output</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
     <t>全名(包含模块和名字)</t>
   </si>
   <si>
@@ -103,83 +114,148 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
+    <t>CfgBGM</t>
+  </si>
+  <si>
+    <t>RowCfgBgm</t>
+  </si>
+  <si>
+    <t>背景音乐@音效.xlsx</t>
+  </si>
+  <si>
+    <t>CfgSFX</t>
+  </si>
+  <si>
+    <t>RowCfgSFX</t>
+  </si>
+  <si>
+    <t>音效@音效.xlsx</t>
+  </si>
+  <si>
+    <t>CfgCamera</t>
+  </si>
+  <si>
+    <t>RowCfgCamera</t>
+  </si>
+  <si>
+    <t>摄像机.xlsx</t>
+  </si>
+  <si>
     <t>CfgPrefab</t>
   </si>
   <si>
-    <t>CfgSFX</t>
+    <t>RowCfgPrefab</t>
+  </si>
+  <si>
+    <t>CfgUI</t>
+  </si>
+  <si>
+    <t>RowCfgUI</t>
+  </si>
+  <si>
+    <t>界面@界面.xlsx</t>
+  </si>
+  <si>
+    <t>CfgHUD</t>
+  </si>
+  <si>
+    <t>RowCfgHUD</t>
+  </si>
+  <si>
+    <t>HUD@界面.xlsx</t>
+  </si>
+  <si>
+    <t>CfgScene</t>
+  </si>
+  <si>
+    <t>RowCfgScene</t>
+  </si>
+  <si>
+    <t>场景.xlsx</t>
+  </si>
+  <si>
+    <t>CfgGlobal</t>
+  </si>
+  <si>
+    <t>RowCfgGlobal</t>
+  </si>
+  <si>
+    <t>全局配置.xlsx</t>
+  </si>
+  <si>
+    <t>CfgFont</t>
+  </si>
+  <si>
+    <t>RowCfgFont</t>
+  </si>
+  <si>
+    <t>字体.xlsx</t>
+  </si>
+  <si>
+    <t>CfgLocalization</t>
+  </si>
+  <si>
+    <t>RowCfgLocalization</t>
+  </si>
+  <si>
+    <t>文字@多语言.xlsx</t>
+  </si>
+  <si>
+    <t>CfgLocalizationImage</t>
+  </si>
+  <si>
+    <t>RowCfgLocalizationImage</t>
+  </si>
+  <si>
+    <t>图片@多语言.xlsx</t>
   </si>
   <si>
     <t>CfgSprite</t>
   </si>
   <si>
-    <t>CfgUI</t>
-  </si>
-  <si>
-    <t>CfgBGM</t>
-  </si>
-  <si>
-    <t>RowCfgBgm</t>
-  </si>
-  <si>
-    <t>BGM@AudioSystem.xlsx</t>
-  </si>
-  <si>
-    <t>RowCfgSFX</t>
-  </si>
-  <si>
-    <t>SFX@AudioSystem.xlsx</t>
-  </si>
-  <si>
-    <t>RowCfgUI</t>
-  </si>
-  <si>
-    <t>UI@UISystem.xlsx</t>
-  </si>
-  <si>
     <t>RowCfgSprite</t>
   </si>
   <si>
-    <t>CfgCamera</t>
-  </si>
-  <si>
-    <t>RowCfgCamera</t>
-  </si>
-  <si>
-    <t>Camera@UISystem.xlsx</t>
-  </si>
-  <si>
-    <t>RowCfgPrefab</t>
-  </si>
-  <si>
-    <t>Sprite@Sprite.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CfgScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowCfgScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowCfgHUD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CfgHUD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HUD@UISystem.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab.xlsx</t>
+    <t>贴图.xlsx</t>
+  </si>
+  <si>
+    <t>CfgAction</t>
+  </si>
+  <si>
+    <t>RowCfgAction</t>
+  </si>
+  <si>
+    <t>系统_事件@系统_事件.xlsx</t>
+  </si>
+  <si>
+    <t>CfgCondition</t>
+  </si>
+  <si>
+    <t>RowCfgCondition</t>
+  </si>
+  <si>
+    <t>系统_条件@系统_条件.xlsx</t>
+  </si>
+  <si>
+    <t>CfgDialogue</t>
+  </si>
+  <si>
+    <t>RowCfgDialogue</t>
+  </si>
+  <si>
+    <t>剧情@系统_剧情.xlsx</t>
+  </si>
+  <si>
+    <t>CfgDialogueOption</t>
+  </si>
+  <si>
+    <t>RowCfgDialogueOption</t>
+  </si>
+  <si>
+    <t>剧情选项@系统_剧情.xlsx</t>
+  </si>
+  <si>
+    <t>预制体@预制体.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,21 +275,12 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -256,7 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,22 +602,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="1" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,172 +652,287 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
         <v>27</v>
       </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
